--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1143,25 +1143,25 @@
         <v>80484</v>
       </c>
       <c r="D4">
-        <v>80485</v>
+        <v>80483</v>
       </c>
       <c r="E4">
-        <v>80486</v>
+        <v>80479</v>
       </c>
       <c r="F4">
-        <v>80487</v>
+        <v>80482</v>
       </c>
       <c r="G4">
-        <v>80488</v>
+        <v>80585</v>
       </c>
       <c r="H4">
-        <v>80489</v>
+        <v>80481</v>
       </c>
       <c r="I4">
-        <v>80490</v>
+        <v>94258</v>
       </c>
       <c r="J4">
-        <v>80491</v>
+        <v>94261</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1172,28 +1172,28 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>80485</v>
+        <v>49094</v>
       </c>
       <c r="D5">
-        <v>80486</v>
+        <v>49095</v>
       </c>
       <c r="E5">
-        <v>80487</v>
+        <v>80479</v>
       </c>
       <c r="F5">
-        <v>80488</v>
+        <v>80482</v>
       </c>
       <c r="G5">
-        <v>80489</v>
+        <v>80585</v>
       </c>
       <c r="H5">
-        <v>80490</v>
+        <v>80481</v>
       </c>
       <c r="I5">
-        <v>80491</v>
+        <v>49096</v>
       </c>
       <c r="J5">
-        <v>80492</v>
+        <v>49098</v>
       </c>
     </row>
   </sheetData>
